--- a/results/2018年第1季.xlsx
+++ b/results/2018年第1季.xlsx
@@ -590,22 +590,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>13,909,958</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>5,028,833</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>3,923,334</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>2,779,228</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -746,22 +746,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>722,996</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>643,432</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>215,202</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>175,065</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -824,22 +824,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>6,425,466</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>2,067,947</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>1,444,866</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>1,147,920</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -902,22 +902,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>16,891,389</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>4,641,073</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>3,329,510</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>2,055,179</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -1156,27 +1156,27 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>-213,262</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>-23,627</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>2,006,160</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>-347,986</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>22,917,567</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -2540,22 +2540,22 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>1,091,690</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>443,194</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>63,552</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>69,912</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -2580,17 +2580,17 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>4,076,187</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -3931,7 +3931,7 @@
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>-0.72</t>
         </is>
       </c>
     </row>
@@ -6714,7 +6714,7 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>84,501,137</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
